--- a/biology/Zoologie/Dipsas_sazimai/Dipsas_sazimai.xlsx
+++ b/biology/Zoologie/Dipsas_sazimai/Dipsas_sazimai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsas sazimai  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsas sazimai  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1].  Elle se rencontre dans la forêt atlantique dans les États de São Paulo, de Rio de Janeiro, d'Espírito Santo, de Bahia et d'Alagoas. Sa présence est incertaine au Sergipe. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil.  Elle se rencontre dans la forêt atlantique dans les États de São Paulo, de Rio de Janeiro, d'Espírito Santo, de Bahia et d'Alagoas. Sa présence est incertaine au Sergipe. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ivan Sazima[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur d'Ivan Sazima.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Fernandes, Marques &amp; Argôlo, 2010 : A new species of Dipsas Laurenti from the Atlantic Forest of Brazil (Serpentes: Dipsadidae). Zootaxa, no 2691, p. 57–66 (texte intégral).</t>
         </is>
